--- a/wiki_history_xlsx/wiki_尼古莱·瓦西里耶维奇·果戈理.xlsx
+++ b/wiki_history_xlsx/wiki_尼古莱·瓦西里耶维奇·果戈理.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>神秘园来客</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Sun417</t>
+  </si>
+  <si>
+    <t>InternetArchiveBot</t>
   </si>
   <si>
     <t>Wildcursive</t>
@@ -591,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,6 +1446,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
